--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,11 +247,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -193,51 +259,51 @@
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="10" max="10" width="15.77734375" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.30356164519073092</v>
+        <v>0.3035557051236214</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30707322042848723</v>
+        <v>0.30710187783377135</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0091588367150917307</v>
+        <v>0.0091983647411783987</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00016654226597207823</v>
+        <v>0.00016831357174742091</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00072365869393596096</v>
+        <v>-0.00070769523081180732</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.0016458637171067856</v>
+        <v>-0.0016516942236437938</v>
       </c>
       <c r="H3" s="0">
-        <v>2.9759169720081909e-05</v>
+        <v>2.975958695289623e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0034348468943960881</v>
+        <v>-0.0034516814666602853</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-3.9193607588750012e-05</v>
+        <v>-3.9194268612874339e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28519720686141059</v>
+        <v>0.2831510949279224</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.018319962167828534</v>
+        <v>-0.020334171779918215</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-7.5397146575705556e-06</v>
+        <v>-7.5399595081920858e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00036702224141999326</v>
+        <v>-0.00036744345157225909</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00054166605288981406</v>
+        <v>-0.00054079496042988193</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0024848735982286449</v>
+        <v>-0.0025459549615561355</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.0049419403827189e-05</v>
+        <v>-9.9932429055030465e-06</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00014490037264824895</v>
+        <v>-0.00014488454995875699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28524782721058695</v>
+        <v>0.28452300047067314</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0043055136250559622</v>
+        <v>-0.0028948233980629653</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0016154293613234061</v>
+        <v>-0.0017357898057426761</v>
       </c>
       <c r="E5" s="0">
-        <v>0.000144265130042035</v>
+        <v>0.00014539281813513876</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0033823755815861234</v>
+        <v>-0.0033754746087689483</v>
       </c>
       <c r="G5" s="0">
-        <v>0.017323269788291226</v>
+        <v>0.017337895460066831</v>
       </c>
       <c r="H5" s="0">
-        <v>-9.9893115885271228e-05</v>
+        <v>-0.00010057036983854928</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0080046585038038038</v>
+        <v>-0.0079956760641404136</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-9.0443815023433238e-06</v>
+        <v>-9.0484888976560818e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.58305608140745613</v>
+        <v>0.5847433969243081</v>
       </c>
       <c r="C6" s="0">
-        <v>0.314833697885195</v>
+        <v>0.31731613292103356</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>3.6623868500075065e-05</v>
+        <v>3.6621729895190424e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00037197669989534789</v>
+        <v>0.00037131376624350242</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00062405678703213814</v>
+        <v>0.00063060766965938636</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.018056207120699819</v>
+        <v>-0.018132344381180061</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.8939230535530704e-06</v>
+        <v>-1.9352520166382448e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.53706506932920539</v>
+        <v>0.53792642582338668</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.059888071136442678</v>
+        <v>-0.060607532361980285</v>
       </c>
       <c r="E7" s="0">
-        <v>0.00080223437708669041</v>
+        <v>0.0008059052304104559</v>
       </c>
       <c r="F7" s="0">
-        <v>0.019761737264994025</v>
+        <v>0.019673797719258212</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0041903411080306116</v>
+        <v>-0.004213563662475865</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0022559357901959678</v>
+        <v>-0.0022549567762477204</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00022063568566221825</v>
+        <v>-0.00022062124988619924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.34714981477539941</v>
+        <v>0.34866749336048702</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.17484474766064478</v>
+        <v>-0.17435792486234697</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00010457697784824397</v>
+        <v>0.00010460636301772192</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0071226609266731083</v>
+        <v>-0.0071229667942915766</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-6.8617649864766042e-08</v>
+        <v>1.921953277225167e-08</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.013611297033308408</v>
+        <v>-0.013441675139161776</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0055589427066219388</v>
+        <v>0.0055590087503502028</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.064022149300111464</v>
+        <v>0.063410574614957083</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.16528684936814203</v>
+        <v>-0.16732218213318334</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0094327733963074645</v>
+        <v>-0.0094673283551993514</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.093177482452714927</v>
+        <v>-0.093226071351539597</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0071327273437880936</v>
+        <v>-0.0071295452687214333</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00067152826496153265</v>
+        <v>-0.00067910689821269353</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.007897556072101174</v>
+        <v>-0.0079039686949074085</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00047125142272724796</v>
+        <v>0.00047128395623385888</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.19126989482770412</v>
+        <v>0.19762341784205217</v>
       </c>
       <c r="C10" s="0">
-        <v>0.17903455949989949</v>
+        <v>0.18611486627256704</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00021271444144787302</v>
+        <v>-0.00021269049336082775</v>
       </c>
       <c r="F10" s="0">
-        <v>5.9980579851189259e-05</v>
+        <v>5.9901536558839251e-05</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-8.2858023828356469e-05</v>
+        <v>-8.2780084584849992e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.018127255875361806</v>
+        <v>0.01792755456229991</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.079259962193315839</v>
+        <v>-0.079175549902329764</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0095814842310722181</v>
+        <v>0.0095815413359447293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.42720682087199735</v>
+        <v>0.4326066087831989</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.33060281071890807</v>
+        <v>0.33058647069694741</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00012954016196453823</v>
+        <v>0.00015109112447456218</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.044126313355038353</v>
+        <v>-0.045218512116928955</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0073776474099473618</v>
+        <v>-0.0074137234005130243</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0016578021559251334</v>
+        <v>0.0016721584724163619</v>
       </c>
       <c r="I11" s="0">
-        <v>0.021665948883401964</v>
+        <v>0.021820901014124674</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.066615215110920778</v>
+        <v>-0.066615194849374282</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.30101185115350165</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.054600340120006967</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.0012202848862801277</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.00027043164904065104</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00033716092123921553</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.033254348218867885</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.044352761606822666</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.3035557051236214</v>
+        <v>0.30360484373684421</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30710187783377135</v>
+        <v>0.30716364883729824</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0091983647411783987</v>
+        <v>0.0092654114603187045</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00016831357174742091</v>
+        <v>0.00016730537667552711</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00070769523081180732</v>
+        <v>-0.00072286020361528476</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.0016516942236437938</v>
+        <v>-0.0016647379862616573</v>
       </c>
       <c r="H3" s="0">
-        <v>2.975958695289623e-05</v>
+        <v>2.9722451288049036e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0034516814666602853</v>
+        <v>-0.0034768410376497705</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-3.9194268612874339e-05</v>
+        <v>-3.9194960301525139e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.2831510949279224</v>
+        <v>0.28102536169047554</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.020334171779918215</v>
+        <v>-0.022412480702273849</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-7.5399595081920858e-06</v>
+        <v>-7.5394217608074345e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00036744345157225909</v>
+        <v>-0.00036568163630250545</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00054079496042988193</v>
+        <v>-0.00053577388369161426</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0025459549615561355</v>
+        <v>-0.0026619754855376999</v>
       </c>
       <c r="J4" s="0">
-        <v>-9.9932429055030465e-06</v>
+        <v>-9.9694321381080417e-06</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00014488454995875699</v>
+        <v>-0.00014486658511814188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28452300047067314</v>
+        <v>0.28289571413943848</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0028948233980629653</v>
+        <v>-0.0027709119776394516</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0017357898057426761</v>
+        <v>-0.0016288556435441824</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00014539281813513876</v>
+        <v>0.00014428629545328074</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0033754746087689483</v>
+        <v>-0.0032313366282898199</v>
       </c>
       <c r="G5" s="0">
-        <v>0.017337895460066831</v>
+        <v>0.017445303711800246</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00010057036983854928</v>
+        <v>-9.9067356015490531e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0079956760641404136</v>
+        <v>-0.0079800208430927718</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-9.0484888976560818e-06</v>
+        <v>-9.0451097088939392e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.5847433969243081</v>
+        <v>0.58676824606027989</v>
       </c>
       <c r="C6" s="0">
-        <v>0.31731613292103356</v>
+        <v>0.32096942639637671</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>3.6621729895190424e-05</v>
+        <v>3.6623162803194088e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00037131376624350242</v>
+        <v>0.0003695727395798934</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00063060766965938636</v>
+        <v>0.00063319876183418598</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.018132344381180061</v>
+        <v>-0.018134321849733306</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.9352520166382448e-06</v>
+        <v>-1.9672900192779785e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.53792642582338668</v>
+        <v>0.54027241218165512</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.060607532361980285</v>
+        <v>-0.060120410209525653</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0008059052304104559</v>
+        <v>0.00080987695025132843</v>
       </c>
       <c r="F7" s="0">
-        <v>0.019673797719258212</v>
+        <v>0.019523550595626715</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.004213563662475865</v>
+        <v>-0.0042357987014531844</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0022549567762477204</v>
+        <v>-0.0022524233510271005</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00022062124988619924</v>
+        <v>-0.00022062916249687703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.34866749336048702</v>
+        <v>0.33799541477324135</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.17435792486234697</v>
+        <v>-0.18759087322539672</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00010460636301772192</v>
+        <v>0.00010467489633686115</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0071229667942915766</v>
+        <v>-0.0071285860824929735</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>1.921953277225167e-08</v>
+        <v>9.0703566580565967e-08</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.013441675139161776</v>
+        <v>-0.013221386247116766</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0055590087503502028</v>
+        <v>0.0055590825466892424</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.063410574614957083</v>
+        <v>0.055920610892642136</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.16732218213318334</v>
+        <v>-0.16472030660781456</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0094673283551993514</v>
+        <v>-0.0095060260737730006</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.093226071351539597</v>
+        <v>-0.092597266112469212</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0071295452687214333</v>
+        <v>-0.0071279733547737253</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00067910689821269353</v>
+        <v>-0.00068350655334860127</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.0079039686949074085</v>
+        <v>-0.0079109272385633755</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00047128395623385888</v>
+        <v>0.00047120206014328314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.19762341784205217</v>
+        <v>0.18860720173649487</v>
       </c>
       <c r="C10" s="0">
-        <v>0.18611486627256704</v>
+        <v>0.18353053224209784</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00021269049336082775</v>
+        <v>-0.00021312244891114071</v>
       </c>
       <c r="F10" s="0">
-        <v>5.9901536558839251e-05</v>
+        <v>8.4096810035587735e-05</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-8.2780084584849992e-05</v>
+        <v>-8.2740285869678675e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.01792755456229991</v>
+        <v>0.01812372746357236</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.079175549902329764</v>
+        <v>-0.0783373712736605</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0095815413359447293</v>
+        <v>0.0095814683365882808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.4326066087831989</v>
+        <v>0.42944881327462769</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.33058647069694741</v>
+        <v>0.33294163210188565</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00015109112447456218</v>
+        <v>0.00034414611533604679</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.045218512116928955</v>
+        <v>-0.042313137783491883</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0074137234005130243</v>
+        <v>-0.0073386119360554086</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0016721584724163619</v>
+        <v>0.0016869151660341367</v>
       </c>
       <c r="I11" s="0">
-        <v>0.021820901014124674</v>
+        <v>0.02213585651398544</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.066615194849374282</v>
+        <v>-0.066615188639561174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.30101185115350165</v>
+        <v>0.24611232260829033</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.054600340120006967</v>
+        <v>-0.082935093830537349</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0012202848862801277</v>
+        <v>0.0012078497373832742</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.00027043164904065104</v>
+        <v>-0.017379316345948536</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00033716092123921553</v>
+        <v>-0.014266721148571401</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.033254348218867885</v>
+        <v>-0.025763853471213835</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.044352761606822666</v>
+        <v>-0.044199355607449531</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.38376695810570582</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.35246321313522583</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.033945594670836708</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.23195972206959334</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.001626052933139699</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00026990524388244785</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0069750371343077081</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.28702464227659918</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.257549505124196</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.075511387912394493</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0015017362784502776</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.0018608372442043479</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00061678290920559196</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.047851317699329349</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00010895675633693092</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.30360484373684421</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.30716364883729824</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.28102536169047554</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.28289571413943848</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.58676824606027989</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.54027241218165512</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.33799541477324135</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.055920610892642136</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.18860720173649487</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.42944881327462769</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.24611232260829033</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.38376695810570582</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.257549505124196</v>
+        <v>0.27330888900118588</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.075511387912394493</v>
+        <v>-0.054635014952557237</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0015017362784502776</v>
+        <v>-0.0015207399785492051</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0018608372442043479</v>
+        <v>9.8560414574318158e-05</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00061678290920559196</v>
+        <v>-0.0067167201778397089</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.047851317699329349</v>
+        <v>-0.033971091907293138</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00010895675633693092</v>
+        <v>-0.013713062502854978</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.34514365677673947</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.45699994422786061</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.0052361033294181722</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.068279258350249297</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0081357269457174187</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.10654517347495102</v>
       </c>
     </row>
   </sheetData>
